--- a/KT2/Weekverslagen/Weekverslag week 3 teun.xlsx
+++ b/KT2/Weekverslagen/Weekverslag week 3 teun.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Maandag 6 maart: </t>
   </si>
@@ -60,6 +63,36 @@
   </si>
   <si>
     <t>Twee stukken code's toegevoegd van Jorrit en van mij zodat we allebei alles hebben</t>
+  </si>
+  <si>
+    <t>Maandag 13 maart:</t>
+  </si>
+  <si>
+    <t>Absentie toeveogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinsdag 14 maart: </t>
+  </si>
+  <si>
+    <t>Ervoor zorgen dat je absenties kan toevoegen</t>
+  </si>
+  <si>
+    <t>Absentie overzicht maken</t>
+  </si>
+  <si>
+    <t>Woensdag 15 maart:</t>
+  </si>
+  <si>
+    <t>Ervoor zorgen dat de absenties goed in de lijst komen</t>
+  </si>
+  <si>
+    <t>Ervoor zorgen dat je de absentie detail kan inzien</t>
+  </si>
+  <si>
+    <t>Donderdag 16 maart:</t>
+  </si>
+  <si>
+    <t>Niks gedaan ik was ziek</t>
   </si>
 </sst>
 </file>
@@ -101,8 +134,36 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -377,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,6 +498,48 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KT2/Weekverslagen/Weekverslag week 3 teun.xlsx
+++ b/KT2/Weekverslagen/Weekverslag week 3 teun.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Maandag 6 maart: </t>
   </si>
@@ -92,7 +92,31 @@
     <t>Donderdag 16 maart:</t>
   </si>
   <si>
-    <t>Niks gedaan ik was ziek</t>
+    <t>Ik was ziek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maandag 20 maart: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absentie nog beter gemaakt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinsdag 21 maart: </t>
+  </si>
+  <si>
+    <t>Ervoor zorgen dat mensen je absentie kunnen afkeueren en goed keuren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woensdag 22 maart: </t>
+  </si>
+  <si>
+    <t>Ervoor zorgen dat de absentie en het rooster beter worden gemaakt en dat het rooster op de goede dag komt van de week</t>
+  </si>
+  <si>
+    <t>Donderdag 23 maart:</t>
+  </si>
+  <si>
+    <t>Ervoor zorgen dat je de klas kan inzien en en daar weer het rooster van die klas kan zien en de leerlingen van de klas</t>
   </si>
 </sst>
 </file>
@@ -438,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,6 +564,38 @@
         <v>21</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
